--- a/data/trans_orig/TRANQUILIDAD-Clase-trans_orig.xlsx
+++ b/data/trans_orig/TRANQUILIDAD-Clase-trans_orig.xlsx
@@ -534,7 +534,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Bienestar emocional - Tranquilidad escala 0-10</t>
+          <t>Bienestar emocional - Tranquilidad escala 0-10 (tasa de respuesta: 99,84%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>

--- a/data/trans_orig/TRANQUILIDAD-Clase-trans_orig.xlsx
+++ b/data/trans_orig/TRANQUILIDAD-Clase-trans_orig.xlsx
@@ -656,7 +656,7 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>6,12</t>
+          <t>6,13</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
@@ -676,7 +676,7 @@
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>5,56</t>
+          <t>5,73</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
@@ -696,7 +696,7 @@
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>5,83</t>
+          <t>5,92</t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr">
@@ -724,12 +724,12 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>5,84; 6,38</t>
+          <t>5,78; 6,43</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>7,53; 8,05</t>
+          <t>7,56; 8,03</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
@@ -739,17 +739,17 @@
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>6,11; 6,58</t>
+          <t>6,11; 6,6</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>5,27; 5,83</t>
+          <t>5,46; 6,01</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>7,16; 7,67</t>
+          <t>7,15; 7,68</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
@@ -759,17 +759,17 @@
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>5,59; 6,07</t>
+          <t>5,58; 6,07</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>5,66; 6,04</t>
+          <t>5,71; 6,14</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>7,43; 7,81</t>
+          <t>7,44; 7,81</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
@@ -779,7 +779,7 @@
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>5,91; 6,24</t>
+          <t>5,9; 6,25</t>
         </is>
       </c>
     </row>
@@ -836,7 +836,7 @@
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>5,89</t>
+          <t>5,91</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
@@ -864,12 +864,12 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>5,76; 6,54</t>
+          <t>5,73; 6,53</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>7,71; 8,25</t>
+          <t>7,67; 8,23</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
@@ -879,17 +879,17 @@
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>6,28; 6,92</t>
+          <t>6,33; 6,95</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>5,4; 6,01</t>
+          <t>5,41; 6,03</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>6,98; 7,59</t>
+          <t>7,0; 7,57</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
@@ -899,17 +899,17 @@
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>5,46; 5,99</t>
+          <t>5,44; 5,99</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>5,65; 6,14</t>
+          <t>5,67; 6,14</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>7,49; 7,89</t>
+          <t>7,49; 7,88</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
@@ -919,7 +919,7 @@
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>5,89; 6,31</t>
+          <t>5,89; 6,32</t>
         </is>
       </c>
     </row>
@@ -936,7 +936,7 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>6,01</t>
+          <t>5,97</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
@@ -956,7 +956,7 @@
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>5,23</t>
+          <t>5,13</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
@@ -976,7 +976,7 @@
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>5,78</t>
+          <t>5,75</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
@@ -1004,12 +1004,12 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>5,74; 6,26</t>
+          <t>5,68; 6,29</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>7,33; 9,67</t>
+          <t>7,32; 9,55</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
@@ -1019,17 +1019,17 @@
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>6,11; 7,01</t>
+          <t>6,13; 7,0</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>4,85; 5,6</t>
+          <t>4,65; 5,59</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>6,55; 7,41</t>
+          <t>6,54; 7,42</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
@@ -1039,17 +1039,17 @@
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>4,59; 5,97</t>
+          <t>4,57; 5,85</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>5,56; 5,99</t>
+          <t>5,49; 6,02</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>7,22; 9,5</t>
+          <t>7,21; 9,54</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
@@ -1059,7 +1059,7 @@
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>5,77; 6,49</t>
+          <t>5,72; 6,49</t>
         </is>
       </c>
     </row>
@@ -1076,7 +1076,7 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>5,98</t>
+          <t>5,79</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
@@ -1096,7 +1096,7 @@
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>5,49</t>
+          <t>5,67</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
@@ -1144,12 +1144,12 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>5,74; 6,25</t>
+          <t>5,48; 6,08</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>7,58; 8,0</t>
+          <t>7,55; 7,98</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
@@ -1159,17 +1159,17 @@
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>6,0; 6,69</t>
+          <t>6,05; 6,76</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>5,24; 5,71</t>
+          <t>5,4; 5,96</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>3,44; 7,29</t>
+          <t>3,61; 7,26</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
@@ -1179,17 +1179,17 @@
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>5,08; 5,9</t>
+          <t>5,09; 5,94</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>5,56; 5,92</t>
+          <t>5,53; 5,94</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>4,68; 7,58</t>
+          <t>4,62; 7,58</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
@@ -1199,7 +1199,7 @@
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>5,63; 6,22</t>
+          <t>5,67; 6,2</t>
         </is>
       </c>
     </row>
@@ -1216,7 +1216,7 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>5,99</t>
+          <t>6,05</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
@@ -1236,7 +1236,7 @@
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>5,2</t>
+          <t>5,45</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
@@ -1256,7 +1256,7 @@
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>5,46</t>
+          <t>5,67</t>
         </is>
       </c>
       <c r="L12" s="2" t="inlineStr">
@@ -1284,12 +1284,12 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>5,54; 6,39</t>
+          <t>5,57; 6,47</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>7,37; 8,01</t>
+          <t>7,36; 7,98</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
@@ -1299,17 +1299,17 @@
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>5,83; 7,17</t>
+          <t>5,88; 7,17</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>4,88; 5,48</t>
+          <t>5,06; 5,78</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>6,85; 8,52</t>
+          <t>6,86; 8,41</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
@@ -1319,17 +1319,17 @@
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>5,15; 6,3</t>
+          <t>5,13; 6,31</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>5,2; 5,69</t>
+          <t>5,4; 5,94</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>7,15; 8,38</t>
+          <t>7,15; 8,28</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
@@ -1339,7 +1339,7 @@
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>5,59; 6,47</t>
+          <t>5,6; 6,49</t>
         </is>
       </c>
     </row>
@@ -1356,7 +1356,7 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>6,94</t>
+          <t>6,93</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
@@ -1376,7 +1376,7 @@
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>5,6</t>
+          <t>5,81</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
@@ -1396,7 +1396,7 @@
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>5,89</t>
+          <t>6,12</t>
         </is>
       </c>
       <c r="L14" s="2" t="inlineStr">
@@ -1424,12 +1424,12 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>6,48; 7,39</t>
+          <t>6,38; 7,41</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>7,48; 8,67</t>
+          <t>7,36; 8,64</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
@@ -1439,17 +1439,17 @@
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>5,37; 7,12</t>
+          <t>5,33; 7,08</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>5,3; 5,89</t>
+          <t>5,45; 6,15</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>7,34; 7,75</t>
+          <t>7,33; 7,75</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
@@ -1459,17 +1459,17 @@
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>5,91; 7,14</t>
+          <t>5,88; 7,1</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>5,63; 6,15</t>
+          <t>5,83; 6,41</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>7,5; 7,91</t>
+          <t>7,47; 7,89</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
@@ -1479,7 +1479,7 @@
       </c>
       <c r="N15" s="2" t="inlineStr">
         <is>
-          <t>5,87; 6,88</t>
+          <t>5,9; 6,89</t>
         </is>
       </c>
     </row>
@@ -1496,7 +1496,7 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>6,09</t>
+          <t>6,06</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
@@ -1516,7 +1516,7 @@
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>5,48</t>
+          <t>5,64</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
@@ -1536,7 +1536,7 @@
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>5,76</t>
+          <t>5,84</t>
         </is>
       </c>
       <c r="L16" s="2" t="inlineStr">
@@ -1564,12 +1564,12 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>5,97; 6,22</t>
+          <t>5,92; 6,23</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>7,78; 8,71</t>
+          <t>7,79; 8,64</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
@@ -1579,17 +1579,17 @@
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>6,29; 6,61</t>
+          <t>6,28; 6,59</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>5,36; 5,61</t>
+          <t>5,51; 5,77</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>5,49; 7,43</t>
+          <t>5,67; 7,44</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
@@ -1604,12 +1604,12 @@
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>5,67; 5,85</t>
+          <t>5,73; 5,94</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>6,63; 7,85</t>
+          <t>6,58; 7,86</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
@@ -1619,7 +1619,7 @@
       </c>
       <c r="N17" s="2" t="inlineStr">
         <is>
-          <t>5,96; 6,18</t>
+          <t>5,97; 6,2</t>
         </is>
       </c>
     </row>

--- a/data/trans_orig/TRANQUILIDAD-Clase-trans_orig.xlsx
+++ b/data/trans_orig/TRANQUILIDAD-Clase-trans_orig.xlsx
@@ -568,62 +568,62 @@
       <c r="B2" s="2" t="n"/>
       <c r="C2" s="3" t="inlineStr">
         <is>
+          <t>Andalucia</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>Barcelona</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>C.Valenciana</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
           <t>País Vasco</t>
         </is>
       </c>
-      <c r="D2" s="3" t="inlineStr">
+      <c r="G2" s="3" t="inlineStr">
         <is>
           <t>Andalucia</t>
         </is>
       </c>
-      <c r="E2" s="3" t="inlineStr">
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>Barcelona</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>C.Valenciana</t>
         </is>
       </c>
-      <c r="F2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>País Vasco</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>Andalucia</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
         <is>
           <t>Barcelona</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>C.Valenciana</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
         <is>
           <t>País Vasco</t>
-        </is>
-      </c>
-      <c r="H2" s="3" t="inlineStr">
-        <is>
-          <t>Andalucia</t>
-        </is>
-      </c>
-      <c r="I2" s="3" t="inlineStr">
-        <is>
-          <t>C.Valenciana</t>
-        </is>
-      </c>
-      <c r="J2" s="3" t="inlineStr">
-        <is>
-          <t>Barcelona</t>
-        </is>
-      </c>
-      <c r="K2" s="3" t="inlineStr">
-        <is>
-          <t>País Vasco</t>
-        </is>
-      </c>
-      <c r="L2" s="3" t="inlineStr">
-        <is>
-          <t>Andalucia</t>
-        </is>
-      </c>
-      <c r="M2" s="3" t="inlineStr">
-        <is>
-          <t>C.Valenciana</t>
-        </is>
-      </c>
-      <c r="N2" s="3" t="inlineStr">
-        <is>
-          <t>Barcelona</t>
         </is>
       </c>
     </row>
@@ -656,62 +656,62 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
+          <t>7,86</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>6,35</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>6,06</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
           <t>6,13</t>
         </is>
       </c>
-      <c r="D4" s="2" t="inlineStr">
-        <is>
-          <t>7,81</t>
-        </is>
-      </c>
-      <c r="E4" s="2" t="inlineStr">
-        <is>
-          <t>6,06</t>
-        </is>
-      </c>
-      <c r="F4" s="2" t="inlineStr">
-        <is>
-          <t>6,35</t>
-        </is>
-      </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
+          <t>7,37</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>5,81</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>6,27</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
           <t>5,73</t>
         </is>
       </c>
-      <c r="H4" s="2" t="inlineStr">
-        <is>
-          <t>7,42</t>
-        </is>
-      </c>
-      <c r="I4" s="2" t="inlineStr">
-        <is>
-          <t>6,27</t>
-        </is>
-      </c>
-      <c r="J4" s="2" t="inlineStr">
-        <is>
-          <t>5,81</t>
-        </is>
-      </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
+          <t>7,64</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>6,08</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>6,16</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
           <t>5,92</t>
-        </is>
-      </c>
-      <c r="L4" s="2" t="inlineStr">
-        <is>
-          <t>7,63</t>
-        </is>
-      </c>
-      <c r="M4" s="2" t="inlineStr">
-        <is>
-          <t>6,16</t>
-        </is>
-      </c>
-      <c r="N4" s="2" t="inlineStr">
-        <is>
-          <t>6,08</t>
         </is>
       </c>
     </row>
@@ -724,62 +724,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
+          <t>7,6; 8,07</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>6,11; 6,6</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>5,83; 6,3</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
           <t>5,78; 6,43</t>
         </is>
       </c>
-      <c r="D5" s="2" t="inlineStr">
-        <is>
-          <t>7,56; 8,03</t>
-        </is>
-      </c>
-      <c r="E5" s="2" t="inlineStr">
-        <is>
-          <t>5,83; 6,3</t>
-        </is>
-      </c>
-      <c r="F5" s="2" t="inlineStr">
-        <is>
-          <t>6,11; 6,6</t>
-        </is>
-      </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
+          <t>7,12; 7,62</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>5,58; 6,07</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>6,03; 6,51</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
           <t>5,46; 6,01</t>
         </is>
       </c>
-      <c r="H5" s="2" t="inlineStr">
-        <is>
-          <t>7,15; 7,68</t>
-        </is>
-      </c>
-      <c r="I5" s="2" t="inlineStr">
-        <is>
-          <t>6,03; 6,51</t>
-        </is>
-      </c>
-      <c r="J5" s="2" t="inlineStr">
-        <is>
-          <t>5,58; 6,07</t>
-        </is>
-      </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
+          <t>7,45; 7,82</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>5,9; 6,25</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>5,99; 6,34</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
           <t>5,71; 6,14</t>
-        </is>
-      </c>
-      <c r="L5" s="2" t="inlineStr">
-        <is>
-          <t>7,44; 7,81</t>
-        </is>
-      </c>
-      <c r="M5" s="2" t="inlineStr">
-        <is>
-          <t>5,99; 6,34</t>
-        </is>
-      </c>
-      <c r="N5" s="2" t="inlineStr">
-        <is>
-          <t>5,9; 6,25</t>
         </is>
       </c>
     </row>
@@ -796,62 +796,62 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
+          <t>8,04</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>6,63</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>5,9</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
           <t>6,16</t>
         </is>
       </c>
-      <c r="D6" s="2" t="inlineStr">
-        <is>
-          <t>8,0</t>
-        </is>
-      </c>
-      <c r="E6" s="2" t="inlineStr">
-        <is>
-          <t>5,9</t>
-        </is>
-      </c>
-      <c r="F6" s="2" t="inlineStr">
-        <is>
-          <t>6,63</t>
-        </is>
-      </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
+          <t>7,34</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>5,73</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>6,3</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
           <t>5,7</t>
         </is>
       </c>
-      <c r="H6" s="2" t="inlineStr">
-        <is>
-          <t>7,3</t>
-        </is>
-      </c>
-      <c r="I6" s="2" t="inlineStr">
-        <is>
-          <t>6,3</t>
-        </is>
-      </c>
-      <c r="J6" s="2" t="inlineStr">
-        <is>
-          <t>5,73</t>
-        </is>
-      </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
+          <t>7,72</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>6,1</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>6,11</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
           <t>5,91</t>
-        </is>
-      </c>
-      <c r="L6" s="2" t="inlineStr">
-        <is>
-          <t>7,69</t>
-        </is>
-      </c>
-      <c r="M6" s="2" t="inlineStr">
-        <is>
-          <t>6,11</t>
-        </is>
-      </c>
-      <c r="N6" s="2" t="inlineStr">
-        <is>
-          <t>6,1</t>
         </is>
       </c>
     </row>
@@ -864,62 +864,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
+          <t>7,76; 8,27</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>6,33; 6,95</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>5,63; 6,17</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
           <t>5,73; 6,53</t>
         </is>
       </c>
-      <c r="D7" s="2" t="inlineStr">
-        <is>
-          <t>7,67; 8,23</t>
-        </is>
-      </c>
-      <c r="E7" s="2" t="inlineStr">
-        <is>
-          <t>5,63; 6,17</t>
-        </is>
-      </c>
-      <c r="F7" s="2" t="inlineStr">
-        <is>
-          <t>6,33; 6,95</t>
-        </is>
-      </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
+          <t>7,06; 7,59</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>5,44; 5,99</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>6,06; 6,53</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
           <t>5,41; 6,03</t>
         </is>
       </c>
-      <c r="H7" s="2" t="inlineStr">
-        <is>
-          <t>7,0; 7,57</t>
-        </is>
-      </c>
-      <c r="I7" s="2" t="inlineStr">
-        <is>
-          <t>6,06; 6,53</t>
-        </is>
-      </c>
-      <c r="J7" s="2" t="inlineStr">
-        <is>
-          <t>5,44; 5,99</t>
-        </is>
-      </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
+          <t>7,52; 7,9</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>5,89; 6,32</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>5,95; 6,3</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
           <t>5,67; 6,14</t>
-        </is>
-      </c>
-      <c r="L7" s="2" t="inlineStr">
-        <is>
-          <t>7,49; 7,88</t>
-        </is>
-      </c>
-      <c r="M7" s="2" t="inlineStr">
-        <is>
-          <t>5,95; 6,3</t>
-        </is>
-      </c>
-      <c r="N7" s="2" t="inlineStr">
-        <is>
-          <t>5,89; 6,32</t>
         </is>
       </c>
     </row>
@@ -936,62 +936,62 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
+          <t>7,52</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>6,56</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>6,08</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
           <t>5,97</t>
         </is>
       </c>
-      <c r="D8" s="2" t="inlineStr">
-        <is>
-          <t>8,77</t>
-        </is>
-      </c>
-      <c r="E8" s="2" t="inlineStr">
-        <is>
-          <t>6,08</t>
-        </is>
-      </c>
-      <c r="F8" s="2" t="inlineStr">
-        <is>
-          <t>6,56</t>
-        </is>
-      </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
+          <t>7,01</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>5,24</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>6,96</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
           <t>5,13</t>
         </is>
       </c>
-      <c r="H8" s="2" t="inlineStr">
-        <is>
-          <t>6,99</t>
-        </is>
-      </c>
-      <c r="I8" s="2" t="inlineStr">
-        <is>
-          <t>6,96</t>
-        </is>
-      </c>
-      <c r="J8" s="2" t="inlineStr">
-        <is>
-          <t>5,24</t>
-        </is>
-      </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
+          <t>7,37</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>6,12</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>6,36</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
           <t>5,75</t>
-        </is>
-      </c>
-      <c r="L8" s="2" t="inlineStr">
-        <is>
-          <t>8,47</t>
-        </is>
-      </c>
-      <c r="M8" s="2" t="inlineStr">
-        <is>
-          <t>6,36</t>
-        </is>
-      </c>
-      <c r="N8" s="2" t="inlineStr">
-        <is>
-          <t>6,12</t>
         </is>
       </c>
     </row>
@@ -1004,62 +1004,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
+          <t>7,12; 7,81</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>6,13; 7,0</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>5,82; 6,35</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
           <t>5,68; 6,29</t>
         </is>
       </c>
-      <c r="D9" s="2" t="inlineStr">
-        <is>
-          <t>7,32; 9,55</t>
-        </is>
-      </c>
-      <c r="E9" s="2" t="inlineStr">
-        <is>
-          <t>5,82; 6,35</t>
-        </is>
-      </c>
-      <c r="F9" s="2" t="inlineStr">
-        <is>
-          <t>6,13; 7,0</t>
-        </is>
-      </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
+          <t>6,58; 7,43</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>4,57; 5,85</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>6,54; 7,37</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
           <t>4,65; 5,59</t>
         </is>
       </c>
-      <c r="H9" s="2" t="inlineStr">
-        <is>
-          <t>6,54; 7,42</t>
-        </is>
-      </c>
-      <c r="I9" s="2" t="inlineStr">
-        <is>
-          <t>6,54; 7,37</t>
-        </is>
-      </c>
-      <c r="J9" s="2" t="inlineStr">
-        <is>
-          <t>4,57; 5,85</t>
-        </is>
-      </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
+          <t>7,04; 7,61</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>5,72; 6,49</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>6,12; 6,58</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
           <t>5,49; 6,02</t>
-        </is>
-      </c>
-      <c r="L9" s="2" t="inlineStr">
-        <is>
-          <t>7,21; 9,54</t>
-        </is>
-      </c>
-      <c r="M9" s="2" t="inlineStr">
-        <is>
-          <t>6,12; 6,58</t>
-        </is>
-      </c>
-      <c r="N9" s="2" t="inlineStr">
-        <is>
-          <t>5,72; 6,49</t>
         </is>
       </c>
     </row>
@@ -1076,62 +1076,62 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
+          <t>7,8</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>6,39</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>6,41</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
           <t>5,79</t>
         </is>
       </c>
-      <c r="D10" s="2" t="inlineStr">
-        <is>
-          <t>7,79</t>
-        </is>
-      </c>
-      <c r="E10" s="2" t="inlineStr">
-        <is>
-          <t>6,41</t>
-        </is>
-      </c>
-      <c r="F10" s="2" t="inlineStr">
-        <is>
-          <t>6,39</t>
-        </is>
-      </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
+          <t>7,2</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>5,5</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>6,59</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
           <t>5,67</t>
         </is>
       </c>
-      <c r="H10" s="2" t="inlineStr">
-        <is>
-          <t>5,53</t>
-        </is>
-      </c>
-      <c r="I10" s="2" t="inlineStr">
-        <is>
-          <t>6,59</t>
-        </is>
-      </c>
-      <c r="J10" s="2" t="inlineStr">
-        <is>
-          <t>5,5</t>
-        </is>
-      </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
+          <t>7,53</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>5,95</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>6,5</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
           <t>5,73</t>
-        </is>
-      </c>
-      <c r="L10" s="2" t="inlineStr">
-        <is>
-          <t>6,56</t>
-        </is>
-      </c>
-      <c r="M10" s="2" t="inlineStr">
-        <is>
-          <t>6,5</t>
-        </is>
-      </c>
-      <c r="N10" s="2" t="inlineStr">
-        <is>
-          <t>5,95</t>
         </is>
       </c>
     </row>
@@ -1144,62 +1144,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
+          <t>7,58; 8,0</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>6,05; 6,76</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>6,21; 6,61</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
           <t>5,48; 6,08</t>
         </is>
       </c>
-      <c r="D11" s="2" t="inlineStr">
-        <is>
-          <t>7,55; 7,98</t>
-        </is>
-      </c>
-      <c r="E11" s="2" t="inlineStr">
-        <is>
-          <t>6,21; 6,61</t>
-        </is>
-      </c>
-      <c r="F11" s="2" t="inlineStr">
-        <is>
-          <t>6,05; 6,76</t>
-        </is>
-      </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
+          <t>6,98; 7,39</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>5,09; 5,94</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>6,34; 6,8</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
           <t>5,4; 5,96</t>
         </is>
       </c>
-      <c r="H11" s="2" t="inlineStr">
-        <is>
-          <t>3,61; 7,26</t>
-        </is>
-      </c>
-      <c r="I11" s="2" t="inlineStr">
-        <is>
-          <t>6,34; 6,8</t>
-        </is>
-      </c>
-      <c r="J11" s="2" t="inlineStr">
-        <is>
-          <t>5,09; 5,94</t>
-        </is>
-      </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
+          <t>7,38; 7,67</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>5,67; 6,2</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>6,36; 6,65</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
           <t>5,53; 5,94</t>
-        </is>
-      </c>
-      <c r="L11" s="2" t="inlineStr">
-        <is>
-          <t>4,62; 7,58</t>
-        </is>
-      </c>
-      <c r="M11" s="2" t="inlineStr">
-        <is>
-          <t>6,36; 6,65</t>
-        </is>
-      </c>
-      <c r="N11" s="2" t="inlineStr">
-        <is>
-          <t>5,67; 6,2</t>
         </is>
       </c>
     </row>
@@ -1216,62 +1216,62 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
+          <t>7,78</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>6,52</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>6,09</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
           <t>6,05</t>
         </is>
       </c>
-      <c r="D12" s="2" t="inlineStr">
-        <is>
-          <t>7,7</t>
-        </is>
-      </c>
-      <c r="E12" s="2" t="inlineStr">
-        <is>
-          <t>6,09</t>
-        </is>
-      </c>
-      <c r="F12" s="2" t="inlineStr">
-        <is>
-          <t>6,52</t>
-        </is>
-      </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
+          <t>6,92</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>5,74</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>6,45</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
           <t>5,45</t>
         </is>
       </c>
-      <c r="H12" s="2" t="inlineStr">
-        <is>
-          <t>7,43</t>
-        </is>
-      </c>
-      <c r="I12" s="2" t="inlineStr">
-        <is>
-          <t>6,45</t>
-        </is>
-      </c>
-      <c r="J12" s="2" t="inlineStr">
-        <is>
-          <t>5,74</t>
-        </is>
-      </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
+          <t>7,25</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>6,03</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>6,27</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
           <t>5,67</t>
-        </is>
-      </c>
-      <c r="L12" s="2" t="inlineStr">
-        <is>
-          <t>7,52</t>
-        </is>
-      </c>
-      <c r="M12" s="2" t="inlineStr">
-        <is>
-          <t>6,27</t>
-        </is>
-      </c>
-      <c r="N12" s="2" t="inlineStr">
-        <is>
-          <t>6,03</t>
         </is>
       </c>
     </row>
@@ -1284,62 +1284,62 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
+          <t>7,49; 8,06</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>5,88; 7,17</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>5,72; 6,38</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
           <t>5,57; 6,47</t>
         </is>
       </c>
-      <c r="D13" s="2" t="inlineStr">
-        <is>
-          <t>7,36; 7,98</t>
-        </is>
-      </c>
-      <c r="E13" s="2" t="inlineStr">
-        <is>
-          <t>5,72; 6,38</t>
-        </is>
-      </c>
-      <c r="F13" s="2" t="inlineStr">
-        <is>
-          <t>5,88; 7,17</t>
-        </is>
-      </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
+          <t>6,67; 7,16</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>5,13; 6,31</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>6,15; 6,77</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
           <t>5,06; 5,78</t>
         </is>
       </c>
-      <c r="H13" s="2" t="inlineStr">
-        <is>
-          <t>6,86; 8,41</t>
-        </is>
-      </c>
-      <c r="I13" s="2" t="inlineStr">
-        <is>
-          <t>6,15; 6,77</t>
-        </is>
-      </c>
-      <c r="J13" s="2" t="inlineStr">
-        <is>
-          <t>5,13; 6,31</t>
-        </is>
-      </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
+          <t>7,05; 7,43</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>5,6; 6,49</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>6,06; 6,5</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
           <t>5,4; 5,94</t>
-        </is>
-      </c>
-      <c r="L13" s="2" t="inlineStr">
-        <is>
-          <t>7,15; 8,28</t>
-        </is>
-      </c>
-      <c r="M13" s="2" t="inlineStr">
-        <is>
-          <t>6,06; 6,5</t>
-        </is>
-      </c>
-      <c r="N13" s="2" t="inlineStr">
-        <is>
-          <t>5,6; 6,49</t>
         </is>
       </c>
     </row>
@@ -1356,62 +1356,62 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
+          <t>8,24</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>6,24</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>5,91</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
           <t>6,93</t>
         </is>
       </c>
-      <c r="D14" s="2" t="inlineStr">
-        <is>
-          <t>8,19</t>
-        </is>
-      </c>
-      <c r="E14" s="2" t="inlineStr">
-        <is>
-          <t>5,91</t>
-        </is>
-      </c>
-      <c r="F14" s="2" t="inlineStr">
-        <is>
-          <t>6,24</t>
-        </is>
-      </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
+          <t>7,58</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>6,53</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>4,65</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
           <t>5,81</t>
         </is>
       </c>
-      <c r="H14" s="2" t="inlineStr">
-        <is>
-          <t>7,54</t>
-        </is>
-      </c>
-      <c r="I14" s="2" t="inlineStr">
-        <is>
-          <t>4,65</t>
-        </is>
-      </c>
-      <c r="J14" s="2" t="inlineStr">
-        <is>
-          <t>6,53</t>
-        </is>
-      </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
+          <t>7,74</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>6,43</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>5,21</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
           <t>6,12</t>
-        </is>
-      </c>
-      <c r="L14" s="2" t="inlineStr">
-        <is>
-          <t>7,71</t>
-        </is>
-      </c>
-      <c r="M14" s="2" t="inlineStr">
-        <is>
-          <t>5,21</t>
-        </is>
-      </c>
-      <c r="N14" s="2" t="inlineStr">
-        <is>
-          <t>6,43</t>
         </is>
       </c>
     </row>
@@ -1424,62 +1424,62 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
+          <t>7,58; 8,68</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>5,33; 7,08</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>4,46; 7,34</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
           <t>6,38; 7,41</t>
         </is>
       </c>
-      <c r="D15" s="2" t="inlineStr">
-        <is>
-          <t>7,36; 8,64</t>
-        </is>
-      </c>
-      <c r="E15" s="2" t="inlineStr">
-        <is>
-          <t>4,46; 7,34</t>
-        </is>
-      </c>
-      <c r="F15" s="2" t="inlineStr">
-        <is>
-          <t>5,33; 7,08</t>
-        </is>
-      </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
+          <t>7,38; 7,79</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>5,88; 7,1</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>3,28; 6,29</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
           <t>5,45; 6,15</t>
         </is>
       </c>
-      <c r="H15" s="2" t="inlineStr">
-        <is>
-          <t>7,33; 7,75</t>
-        </is>
-      </c>
-      <c r="I15" s="2" t="inlineStr">
-        <is>
-          <t>3,28; 6,29</t>
-        </is>
-      </c>
-      <c r="J15" s="2" t="inlineStr">
-        <is>
-          <t>5,88; 7,1</t>
-        </is>
-      </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
+          <t>7,53; 7,91</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>5,9; 6,89</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>4,17; 6,25</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
           <t>5,83; 6,41</t>
-        </is>
-      </c>
-      <c r="L15" s="2" t="inlineStr">
-        <is>
-          <t>7,47; 7,89</t>
-        </is>
-      </c>
-      <c r="M15" s="2" t="inlineStr">
-        <is>
-          <t>4,17; 6,25</t>
-        </is>
-      </c>
-      <c r="N15" s="2" t="inlineStr">
-        <is>
-          <t>5,9; 6,89</t>
         </is>
       </c>
     </row>
@@ -1496,62 +1496,62 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
+          <t>7,85</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>6,45</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>6,13</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
           <t>6,06</t>
         </is>
       </c>
-      <c r="D16" s="2" t="inlineStr">
-        <is>
-          <t>8,07</t>
-        </is>
-      </c>
-      <c r="E16" s="2" t="inlineStr">
-        <is>
-          <t>6,13</t>
-        </is>
-      </c>
-      <c r="F16" s="2" t="inlineStr">
-        <is>
-          <t>6,45</t>
-        </is>
-      </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
+          <t>7,28</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
+          <t>5,73</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>6,43</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
           <t>5,64</t>
         </is>
       </c>
-      <c r="H16" s="2" t="inlineStr">
-        <is>
-          <t>6,87</t>
-        </is>
-      </c>
-      <c r="I16" s="2" t="inlineStr">
-        <is>
-          <t>6,43</t>
-        </is>
-      </c>
-      <c r="J16" s="2" t="inlineStr">
-        <is>
-          <t>5,73</t>
-        </is>
-      </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
+          <t>7,56</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>6,07</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>6,28</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
           <t>5,84</t>
-        </is>
-      </c>
-      <c r="L16" s="2" t="inlineStr">
-        <is>
-          <t>7,45</t>
-        </is>
-      </c>
-      <c r="M16" s="2" t="inlineStr">
-        <is>
-          <t>6,28</t>
-        </is>
-      </c>
-      <c r="N16" s="2" t="inlineStr">
-        <is>
-          <t>6,07</t>
         </is>
       </c>
     </row>
@@ -1564,62 +1564,62 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
+          <t>7,72; 7,96</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>6,28; 6,59</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>6,03; 6,25</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
           <t>5,92; 6,23</t>
         </is>
       </c>
-      <c r="D17" s="2" t="inlineStr">
-        <is>
-          <t>7,79; 8,64</t>
-        </is>
-      </c>
-      <c r="E17" s="2" t="inlineStr">
-        <is>
-          <t>6,03; 6,25</t>
-        </is>
-      </c>
-      <c r="F17" s="2" t="inlineStr">
-        <is>
-          <t>6,28; 6,59</t>
-        </is>
-      </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
+          <t>7,17; 7,39</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>5,57; 5,89</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>6,31; 6,56</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
           <t>5,51; 5,77</t>
         </is>
       </c>
-      <c r="H17" s="2" t="inlineStr">
-        <is>
-          <t>5,67; 7,44</t>
-        </is>
-      </c>
-      <c r="I17" s="2" t="inlineStr">
-        <is>
-          <t>6,31; 6,56</t>
-        </is>
-      </c>
-      <c r="J17" s="2" t="inlineStr">
-        <is>
-          <t>5,57; 5,89</t>
-        </is>
-      </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
+          <t>7,48; 7,63</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>5,97; 6,2</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>6,19; 6,36</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
           <t>5,73; 5,94</t>
-        </is>
-      </c>
-      <c r="L17" s="2" t="inlineStr">
-        <is>
-          <t>6,58; 7,86</t>
-        </is>
-      </c>
-      <c r="M17" s="2" t="inlineStr">
-        <is>
-          <t>6,19; 6,36</t>
-        </is>
-      </c>
-      <c r="N17" s="2" t="inlineStr">
-        <is>
-          <t>5,97; 6,2</t>
         </is>
       </c>
     </row>
